--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna3-Epha4.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna3-Epha4.xlsx
@@ -531,16 +531,16 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H2">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -549,34 +549,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>5.685057</v>
+        <v>10.23061133333333</v>
       </c>
       <c r="N2">
-        <v>17.055171</v>
+        <v>30.691834</v>
       </c>
       <c r="O2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="P2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="Q2">
-        <v>1.246200499761</v>
+        <v>3.794666741480667</v>
       </c>
       <c r="R2">
-        <v>11.215804497849</v>
+        <v>34.152000673326</v>
       </c>
       <c r="S2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
       <c r="T2">
-        <v>0.3604606774420115</v>
+        <v>0.4855635428718841</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,16 +593,16 @@
         <v>23</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H3">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -623,22 +623,22 @@
         <v>26.325559</v>
       </c>
       <c r="O3">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="P3">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
       <c r="Q3">
-        <v>1.923576420446777</v>
+        <v>3.254830688455666</v>
       </c>
       <c r="R3">
-        <v>17.312187784021</v>
+        <v>29.293476196101</v>
       </c>
       <c r="S3">
-        <v>0.556390131249909</v>
+        <v>0.4164864079521221</v>
       </c>
       <c r="T3">
-        <v>0.5563901312499091</v>
+        <v>0.4164864079521222</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,16 +655,16 @@
         <v>24</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H4">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.269702666666667</v>
+        <v>2.034752</v>
       </c>
       <c r="N4">
-        <v>3.809108</v>
+        <v>6.104255999999999</v>
       </c>
       <c r="O4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="P4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
       <c r="Q4">
-        <v>0.2783268659835555</v>
+        <v>0.7547159685759999</v>
       </c>
       <c r="R4">
-        <v>2.504941793852</v>
+        <v>6.792443717183999</v>
       </c>
       <c r="S4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303886</v>
       </c>
       <c r="T4">
-        <v>0.08050541681052542</v>
+        <v>0.09657305490303887</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,16 +717,16 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2192063333333333</v>
+        <v>0.370913</v>
       </c>
       <c r="H5">
-        <v>0.657619</v>
+        <v>1.112739</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -735,34 +735,34 @@
         <v>1</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>0.04169666666666667</v>
+        <v>0.02901266666666667</v>
       </c>
       <c r="N5">
-        <v>0.12509</v>
+        <v>0.087038</v>
       </c>
       <c r="O5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="P5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="Q5">
-        <v>0.009140173412222221</v>
+        <v>0.01076117523133333</v>
       </c>
       <c r="R5">
-        <v>0.08226156071</v>
+        <v>0.096850577082</v>
       </c>
       <c r="S5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
       <c r="T5">
-        <v>0.002643774497553922</v>
+        <v>0.001376994272954919</v>
       </c>
     </row>
   </sheetData>
